--- a/data/taxon genera files/X genera reduced.xlsx
+++ b/data/taxon genera files/X genera reduced.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrave\Documents\taxon genera files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82C441F-F86B-44CF-BDE3-02C491BC4567}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19416" windowHeight="11016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,9 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
-    <t>XANTHIDIUM</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">XANTHOCYSTA </t>
     </r>
@@ -1283,13 +1274,27 @@
         <family val="2"/>
       </rPr>
       <t>Wang, Sun &amp; Zhao 1990</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">XANTHIDIUM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ehrenberg 1834; p. 317; extant desmid genus.</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1499,7 +1504,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1532,26 +1537,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1584,23 +1572,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1776,365 +1747,365 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="J69" sqref="J69"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="3" style="2" customWidth="1"/>
-    <col min="3" max="3" width="2.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="5"/>
-    <col min="6" max="16384" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="2.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="2.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="5"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="18" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E4" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E5" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E7" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E8" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E9" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E10" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E11" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E12" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E13" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E14" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E15" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E16" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E17" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E18" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E19" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E20" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E21" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E22" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E23" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E24" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E25" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E27" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E29" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E30" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E31" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E32" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E33" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E34" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E35" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E36" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E37" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E38" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E39" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E40" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E41" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E42" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E43" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E44" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E46" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E47" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E48" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E49" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E50" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E51" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E52" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E53" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E54" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E55" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E56" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E57" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E59" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E60" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E62" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E63" s="6"/>
+    </row>
+    <row r="64" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E64" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E65" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E66" s="6"/>
+    </row>
+    <row r="67" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C67" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E4" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E5" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E7" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E8" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E9" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E10" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E11" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E12" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E13" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E14" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E15" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E16" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E17" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E18" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E19" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E20" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E21" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E22" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E23" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E24" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E25" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E27" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E29" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E30" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E31" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E32" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E33" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E34" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E35" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E36" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E37" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E38" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E39" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E40" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E41" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E42" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E43" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E44" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B45" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E45" s="6"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E46" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E47" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E48" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E49" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E50" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E51" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E52" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E53" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E54" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E55" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E56" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E57" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E58" s="6"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E59" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E60" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E61" s="6"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E62" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E63" s="6"/>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E64" s="6" t="s">
+      <c r="E67" s="6"/>
+    </row>
+    <row r="68" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E68" s="6" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E65" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B66" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E66" s="6"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C67" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E67" s="6"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E68" s="6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -2143,7 +2114,7 @@
       <c r="C69" s="9"/>
       <c r="D69" s="10"/>
       <c r="E69" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F69" s="11"/>
       <c r="G69" s="12"/>
@@ -2154,9 +2125,9 @@
       <c r="L69"/>
       <c r="M69"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E70" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -2165,7 +2136,7 @@
       <c r="C71" s="9"/>
       <c r="D71" s="10"/>
       <c r="E71" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F71" s="11"/>
       <c r="G71" s="12"/>
@@ -2176,24 +2147,24 @@
       <c r="L71"/>
       <c r="M71"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E72" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E73" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E73" s="6" t="s">
+    <row r="74" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E74" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E75" s="6" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E74" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E75" s="6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -2202,7 +2173,7 @@
       <c r="C76" s="9"/>
       <c r="D76" s="10"/>
       <c r="E76" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F76" s="11"/>
       <c r="G76" s="12"/>
@@ -2213,93 +2184,93 @@
       <c r="L76"/>
       <c r="M76"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="E77" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E78" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E79" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B80" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E80" s="6"/>
+    </row>
+    <row r="81" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E81" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E82" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B83" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E83" s="6"/>
+    </row>
+    <row r="84" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E84" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B85" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E85" s="6"/>
+    </row>
+    <row r="86" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E86" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B87" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E78" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E79" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B80" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E80" s="6"/>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E81" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E82" s="6" t="s">
+      <c r="E87" s="6"/>
+    </row>
+    <row r="88" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E88" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B89" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E89" s="6"/>
+    </row>
+    <row r="90" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E90" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B91" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E92" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E83" s="6"/>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E84" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B85" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E85" s="6"/>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E86" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B87" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E87" s="6"/>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E88" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B89" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E89" s="6"/>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E90" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B91" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E92" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E5:E171">
+  <sortState ref="E5:E171">
     <sortCondition ref="E5:E171"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2308,24 +2279,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/taxon genera files/X genera reduced.xlsx
+++ b/data/taxon genera files/X genera reduced.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <r>
       <t xml:space="preserve">XANTHOCYSTA </t>
@@ -1288,6 +1288,52 @@
         <family val="2"/>
       </rPr>
       <t>Ehrenberg 1834; p. 317; extant desmid genus.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Xylariasporites lanceolatus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mukherjee 2012 (T)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">XYLARIASPORITES </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Mukherjee 2012; p. 9; see </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Hypoxylonites</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
     </r>
   </si>
 </sst>
@@ -1748,10 +1794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M92"/>
+  <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="L78" sqref="L78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1993,122 +2039,122 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E47" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E48" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E49" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E50" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E51" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E52" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E53" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E54" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E55" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E56" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E57" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>69</v>
       </c>
       <c r="E58" s="6"/>
     </row>
-    <row r="59" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E59" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E60" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E61" s="6"/>
     </row>
-    <row r="62" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E62" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>79</v>
       </c>
       <c r="E63" s="6"/>
     </row>
-    <row r="64" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E64" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E65" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E66" s="6"/>
     </row>
-    <row r="67" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C67" s="4" t="s">
         <v>85</v>
       </c>
       <c r="E67" s="6"/>
     </row>
-    <row r="68" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E68" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69"/>
       <c r="B69" s="8"/>
       <c r="C69" s="9"/>
@@ -2125,12 +2171,12 @@
       <c r="L69"/>
       <c r="M69"/>
     </row>
-    <row r="70" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E70" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71"/>
       <c r="B71" s="8"/>
       <c r="C71" s="9"/>
@@ -2147,27 +2193,27 @@
       <c r="L71"/>
       <c r="M71"/>
     </row>
-    <row r="72" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E72" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E73" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E74" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E75" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76"/>
       <c r="B76" s="8"/>
       <c r="C76" s="9"/>
@@ -2184,17 +2230,17 @@
       <c r="L76"/>
       <c r="M76"/>
     </row>
-    <row r="77" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E77" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E78" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E79" s="6" t="s">
         <v>57</v>
       </c>
@@ -2205,67 +2251,78 @@
       </c>
       <c r="E80" s="6"/>
     </row>
-    <row r="81" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E81" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="82" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E82" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E83" s="6"/>
     </row>
-    <row r="84" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E84" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="85" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
         <v>72</v>
       </c>
       <c r="E85" s="6"/>
     </row>
-    <row r="86" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E86" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E87" s="6"/>
     </row>
-    <row r="88" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E88" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B89" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E89" s="6"/>
+    </row>
+    <row r="90" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E90" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B91" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E89" s="6"/>
-    </row>
-    <row r="90" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="E90" s="6" t="s">
+      <c r="E91" s="6"/>
+    </row>
+    <row r="92" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="E92" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B91" s="2" t="s">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="E92" s="5" t="s">
+    <row r="94" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E94" s="5" t="s">
         <v>59</v>
       </c>
     </row>
